--- a/Rapport1.xlsx
+++ b/Rapport1.xlsx
@@ -9,19 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11235"/>
   </bookViews>
   <sheets>
     <sheet name="Rapport" sheetId="1" r:id="rId1"/>
     <sheet name="Salaires" sheetId="2" r:id="rId2"/>
-    <sheet name="SalairesMedian" sheetId="4" r:id="rId3"/>
-    <sheet name="Employés" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>idEmployee</t>
   </si>
@@ -40,327 +37,6 @@
   </si>
   <si>
     <t>effectiveDate</t>
-  </si>
-  <si>
-    <t>Tadd</t>
-  </si>
-  <si>
-    <t>Gaffney</t>
-  </si>
-  <si>
-    <t>Antonia</t>
-  </si>
-  <si>
-    <t>Izat</t>
-  </si>
-  <si>
-    <t>Kathye</t>
-  </si>
-  <si>
-    <t>Eccott</t>
-  </si>
-  <si>
-    <t>Irita</t>
-  </si>
-  <si>
-    <t>Redmain</t>
-  </si>
-  <si>
-    <t>Padraig</t>
-  </si>
-  <si>
-    <t>Baggelley</t>
-  </si>
-  <si>
-    <t>Levy</t>
-  </si>
-  <si>
-    <t>Besque</t>
-  </si>
-  <si>
-    <t>Elwira</t>
-  </si>
-  <si>
-    <t>Drever</t>
-  </si>
-  <si>
-    <t>Laurie</t>
-  </si>
-  <si>
-    <t>Radage</t>
-  </si>
-  <si>
-    <t>Guenevere</t>
-  </si>
-  <si>
-    <t>Macieiczyk</t>
-  </si>
-  <si>
-    <t>Bobbette</t>
-  </si>
-  <si>
-    <t>Milius</t>
-  </si>
-  <si>
-    <t>Zorana</t>
-  </si>
-  <si>
-    <t>Tante</t>
-  </si>
-  <si>
-    <t>Berni</t>
-  </si>
-  <si>
-    <t>Bagley</t>
-  </si>
-  <si>
-    <t>Vinnie</t>
-  </si>
-  <si>
-    <t>Palfreman</t>
-  </si>
-  <si>
-    <t>Jolie</t>
-  </si>
-  <si>
-    <t>Degoix</t>
-  </si>
-  <si>
-    <t>Catlin</t>
-  </si>
-  <si>
-    <t>Hymers</t>
-  </si>
-  <si>
-    <t>Wernher</t>
-  </si>
-  <si>
-    <t>Bome</t>
-  </si>
-  <si>
-    <t>Tobin</t>
-  </si>
-  <si>
-    <t>Galley</t>
-  </si>
-  <si>
-    <t>Loydie</t>
-  </si>
-  <si>
-    <t>Weatherley</t>
-  </si>
-  <si>
-    <t>Ami</t>
-  </si>
-  <si>
-    <t>Clixby</t>
-  </si>
-  <si>
-    <t>Herold</t>
-  </si>
-  <si>
-    <t>Edens</t>
-  </si>
-  <si>
-    <t>Dylan</t>
-  </si>
-  <si>
-    <t>Walklate</t>
-  </si>
-  <si>
-    <t>Alecia</t>
-  </si>
-  <si>
-    <t>Fellgatt</t>
-  </si>
-  <si>
-    <t>Roze</t>
-  </si>
-  <si>
-    <t>Rash</t>
-  </si>
-  <si>
-    <t>Meridith</t>
-  </si>
-  <si>
-    <t>MacKey</t>
-  </si>
-  <si>
-    <t>Rubetta</t>
-  </si>
-  <si>
-    <t>Burchfield</t>
-  </si>
-  <si>
-    <t>Bernadina</t>
-  </si>
-  <si>
-    <t>Bindley</t>
-  </si>
-  <si>
-    <t>Melisenda</t>
-  </si>
-  <si>
-    <t>Kimmerling</t>
-  </si>
-  <si>
-    <t>Esma</t>
-  </si>
-  <si>
-    <t>Heinlein</t>
-  </si>
-  <si>
-    <t>Giralda</t>
-  </si>
-  <si>
-    <t>Mehmet</t>
-  </si>
-  <si>
-    <t>Fiorenze</t>
-  </si>
-  <si>
-    <t>Kilborn</t>
-  </si>
-  <si>
-    <t>Maybelle</t>
-  </si>
-  <si>
-    <t>Philipard</t>
-  </si>
-  <si>
-    <t>Andrej</t>
-  </si>
-  <si>
-    <t>McFade</t>
-  </si>
-  <si>
-    <t>Vito</t>
-  </si>
-  <si>
-    <t>O' Faherty</t>
-  </si>
-  <si>
-    <t>Doti</t>
-  </si>
-  <si>
-    <t>Coonihan</t>
-  </si>
-  <si>
-    <t>Bunni</t>
-  </si>
-  <si>
-    <t>Kingzet</t>
-  </si>
-  <si>
-    <t>Camey</t>
-  </si>
-  <si>
-    <t>Esmonde</t>
-  </si>
-  <si>
-    <t>Paolina</t>
-  </si>
-  <si>
-    <t>Phare</t>
-  </si>
-  <si>
-    <t>Phyllida</t>
-  </si>
-  <si>
-    <t>Dempster</t>
-  </si>
-  <si>
-    <t>Bay</t>
-  </si>
-  <si>
-    <t>Keyden</t>
-  </si>
-  <si>
-    <t>Edmon</t>
-  </si>
-  <si>
-    <t>Skaid</t>
-  </si>
-  <si>
-    <t>Angele</t>
-  </si>
-  <si>
-    <t>Pail</t>
-  </si>
-  <si>
-    <t>Krishna</t>
-  </si>
-  <si>
-    <t>Bianco</t>
-  </si>
-  <si>
-    <t>Zonda</t>
-  </si>
-  <si>
-    <t>Soff</t>
-  </si>
-  <si>
-    <t>Katharina</t>
-  </si>
-  <si>
-    <t>Lively</t>
-  </si>
-  <si>
-    <t>Arch</t>
-  </si>
-  <si>
-    <t>Verni</t>
-  </si>
-  <si>
-    <t>Egon</t>
-  </si>
-  <si>
-    <t>Retchless</t>
-  </si>
-  <si>
-    <t>Dagny</t>
-  </si>
-  <si>
-    <t>Wade</t>
-  </si>
-  <si>
-    <t>Oriana</t>
-  </si>
-  <si>
-    <t>Paunsford</t>
-  </si>
-  <si>
-    <t>Doyle</t>
-  </si>
-  <si>
-    <t>Jess</t>
-  </si>
-  <si>
-    <t>Albertine</t>
-  </si>
-  <si>
-    <t>Pegden</t>
-  </si>
-  <si>
-    <t>employmentDate</t>
-  </si>
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>dateOfBirth</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Échantillon</t>
   </si>
   <si>
     <t>Minimum</t>
@@ -375,16 +51,23 @@
     <t>Median</t>
   </si>
   <si>
-    <t>Median2</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Écart-Type</t>
+  </si>
+  <si>
+    <t>Médiane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="[$-C0C]d\ mmm\ yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="[$-C0C]d\ mmm\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -415,25 +98,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -467,8 +147,8 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Rapport1.xlsx]Salaires!PivotTable1</c:name>
-    <c:fmtId val="0"/>
+    <c:name>[Rapport1.xlsx]Rapport!PivotTable1</c:name>
+    <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
@@ -476,6 +156,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -491,6 +174,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -506,6 +192,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -521,6 +210,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -535,6 +227,102 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
@@ -559,11 +347,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Salaires!$H$5</c:f>
+              <c:f>Rapport!$C$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Échantillon</c:v>
+                  <c:v>Minimum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -582,105 +370,30 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Salaires!$G$6:$G$11</c:f>
+              <c:f>Rapport!$B$23:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1 janv. 2019</c:v>
+                  <c:v>2019-01-01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1 juin 2019</c:v>
+                  <c:v>2019-06-01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1 janv. 2020</c:v>
+                  <c:v>2020-01-01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1 juin 2020</c:v>
+                  <c:v>2020-06-01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1 janv. 2021</c:v>
+                  <c:v>2021-01-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Salaires!$H$6:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Salaires!$I$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Minimum</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Salaires!$G$6:$G$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1 janv. 2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1 juin 2019</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1 janv. 2020</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1 juin 2020</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1 janv. 2021</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Salaires!$I$6:$I$11</c:f>
+              <c:f>Rapport!$C$23:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -705,11 +418,11 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Salaires!$J$5</c:f>
+              <c:f>Rapport!$D$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -721,7 +434,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -732,30 +445,30 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Salaires!$G$6:$G$11</c:f>
+              <c:f>Rapport!$B$23:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1 janv. 2019</c:v>
+                  <c:v>2019-01-01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1 juin 2019</c:v>
+                  <c:v>2019-06-01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1 janv. 2020</c:v>
+                  <c:v>2020-01-01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1 juin 2020</c:v>
+                  <c:v>2020-06-01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1 janv. 2021</c:v>
+                  <c:v>2021-01-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Salaires!$J$6:$J$11</c:f>
+              <c:f>Rapport!$D$23:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -780,11 +493,11 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Salaires!$K$5</c:f>
+              <c:f>Rapport!$E$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -796,7 +509,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -807,30 +520,30 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Salaires!$G$6:$G$11</c:f>
+              <c:f>Rapport!$B$23:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1 janv. 2019</c:v>
+                  <c:v>2019-01-01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1 juin 2019</c:v>
+                  <c:v>2019-06-01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1 janv. 2020</c:v>
+                  <c:v>2020-01-01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1 juin 2020</c:v>
+                  <c:v>2020-06-01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1 janv. 2021</c:v>
+                  <c:v>2021-01-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Salaires!$K$6:$K$11</c:f>
+              <c:f>Rapport!$E$23:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -855,15 +568,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Salaires!$L$5</c:f>
+              <c:f>Rapport!$F$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Median2</c:v>
+                  <c:v>Médiane</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -871,7 +584,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -882,30 +595,30 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Salaires!$G$6:$G$11</c:f>
+              <c:f>Rapport!$B$23:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1 janv. 2019</c:v>
+                  <c:v>2019-01-01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1 juin 2019</c:v>
+                  <c:v>2019-06-01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1 janv. 2020</c:v>
+                  <c:v>2020-01-01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1 juin 2020</c:v>
+                  <c:v>2020-06-01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1 janv. 2021</c:v>
+                  <c:v>2021-01-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Salaires!$L$6:$L$11</c:f>
+              <c:f>Rapport!$F$23:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -929,6 +642,81 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Rapport!$G$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Écart-Type</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Rapport!$B$23:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2019-01-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019-06-01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020-01-01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020-06-01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021-01-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Rapport!$G$23:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0007482060176911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0695342995846349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0320734469592079</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1444801004364487</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2717092830282248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -938,17 +726,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="393155240"/>
-        <c:axId val="393147400"/>
+        <c:axId val="359613944"/>
+        <c:axId val="359611984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="393155240"/>
+        <c:axId val="359613944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -985,7 +773,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393147400"/>
+        <c:crossAx val="359611984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -993,7 +781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="393147400"/>
+        <c:axId val="359611984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,7 +801,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1044,7 +832,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393155240"/>
+        <c:crossAx val="359613944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1128,8 +916,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
   </c:extLst>
@@ -1696,20 +1482,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>300037</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>223837</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="2" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1733,10 +1519,10 @@
     <worksheetSource ref="B1:D251" sheet="Salaires"/>
   </cacheSource>
   <cacheFields count="3">
-    <cacheField name="hourlyRate" numFmtId="166">
+    <cacheField name="hourlyRate" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15" maxValue="32"/>
     </cacheField>
-    <cacheField name="effectiveDate" numFmtId="165">
+    <cacheField name="effectiveDate" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-01-01T00:00:00" maxDate="2021-01-02T00:00:00" count="5">
         <d v="2019-01-01T00:00:00"/>
         <d v="2019-06-01T00:00:00"/>
@@ -3013,11 +2799,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="G5:L11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Date">
+  <location ref="B22:G27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="165" showAll="0">
+    <pivotField axis="axisRow" numFmtId="166" showAll="0">
       <items count="6">
         <item x="0"/>
         <item x="1"/>
@@ -3032,7 +2818,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
@@ -3047,9 +2833,6 @@
     </i>
     <i>
       <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -3073,14 +2856,14 @@
     </i>
   </colItems>
   <dataFields count="5">
-    <dataField name="Échantillon" fld="0" subtotal="count" baseField="1" baseItem="0"/>
     <dataField name="Minimum" fld="0" subtotal="min" baseField="1" baseItem="0"/>
     <dataField name="Maximum" fld="0" subtotal="max" baseField="1" baseItem="0"/>
     <dataField name="Moyenne" fld="0" subtotal="average" baseField="1" baseItem="0"/>
-    <dataField name="Median2" fld="2" subtotal="average" baseField="1" baseItem="0"/>
+    <dataField name="Médiane" fld="2" subtotal="average" baseField="1" baseItem="0"/>
+    <dataField name="Écart-Type" fld="0" subtotal="stdDev" baseField="1" baseItem="1"/>
   </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="0" series="1">
+  <chartFormats count="9">
+    <chartFormat chart="1" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3089,7 +2872,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
+    <chartFormat chart="1" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3098,7 +2881,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
+    <chartFormat chart="1" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3107,7 +2890,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
+    <chartFormat chart="1" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3116,16 +2899,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
+    <chartFormat chart="2" format="6" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3134,7 +2908,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
+    <chartFormat chart="2" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3143,7 +2917,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="2" series="1">
+    <chartFormat chart="2" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3152,7 +2926,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="3" series="1">
+    <chartFormat chart="2" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3161,7 +2935,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="4" series="1">
+    <chartFormat chart="2" format="10" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3443,81 +3217,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B22:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="8">
+        <v>43466</v>
+      </c>
+      <c r="C23" s="7">
+        <v>15</v>
+      </c>
+      <c r="D23" s="7">
+        <v>25</v>
+      </c>
+      <c r="E23" s="7">
+        <v>19.34</v>
+      </c>
+      <c r="F23" s="7">
+        <v>19.5</v>
+      </c>
+      <c r="G23" s="7">
+        <v>3.0007482060176911</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="8">
+        <v>43617</v>
+      </c>
+      <c r="C24" s="7">
+        <v>16</v>
+      </c>
+      <c r="D24" s="7">
+        <v>27</v>
+      </c>
+      <c r="E24" s="7">
+        <v>20.92</v>
+      </c>
+      <c r="F24" s="7">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7">
+        <v>3.0695342995846349</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="8">
+        <v>43831</v>
+      </c>
+      <c r="C25" s="7">
+        <v>17</v>
+      </c>
+      <c r="D25" s="7">
+        <v>28</v>
+      </c>
+      <c r="E25" s="7">
+        <v>22.48</v>
+      </c>
+      <c r="F25" s="7">
+        <v>23</v>
+      </c>
+      <c r="G25" s="7">
+        <v>3.0320734469592079</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="8">
+        <v>43983</v>
+      </c>
+      <c r="C26" s="7">
+        <v>18</v>
+      </c>
+      <c r="D26" s="7">
+        <v>30</v>
+      </c>
+      <c r="E26" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="F26" s="7">
+        <v>24</v>
+      </c>
+      <c r="G26" s="7">
+        <v>3.1444801004364487</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="8">
+        <v>44197</v>
+      </c>
+      <c r="C27" s="7">
+        <v>19</v>
+      </c>
+      <c r="D27" s="7">
+        <v>32</v>
+      </c>
+      <c r="E27" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="F27" s="7">
+        <v>25</v>
+      </c>
+      <c r="G27" s="7">
+        <v>3.2717092830282248</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"-,Bold Italic"&amp;18&amp;K04-021OpenDayCare&amp;C&amp;14Augmentation salariale des 50 employés&amp;R&amp;"-,Italic"Généré le: 2021-03-21</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L251"/>
+  <dimension ref="A1:G251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="26" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="23" width="3" customWidth="1"/>
     <col min="24" max="24" width="7.28515625" customWidth="1"/>
     <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>15</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>43466</v>
       </c>
       <c r="D2">
         <f t="array" ref="D2">MEDIAN(IF($C$2:$C$251=C2,$B$2:$B$251))</f>
         <v>19.5</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>20</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>43466</v>
       </c>
       <c r="D3">
@@ -3525,14 +3441,14 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="5">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3">
         <v>43466</v>
       </c>
       <c r="D4">
@@ -3540,245 +3456,119 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>18</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>43466</v>
       </c>
       <c r="D5">
         <f t="array" ref="D5">MEDIAN(IF($C$2:$C$251=C5,$B$2:$B$251))</f>
         <v>19.5</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" t="s">
-        <v>110</v>
-      </c>
-      <c r="J5" t="s">
-        <v>111</v>
-      </c>
-      <c r="K5" t="s">
-        <v>112</v>
-      </c>
-      <c r="L5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>22</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>43466</v>
       </c>
       <c r="D6">
         <f t="array" ref="D6">MEDIAN(IF($C$2:$C$251=C6,$B$2:$B$251))</f>
         <v>19.5</v>
       </c>
-      <c r="G6" s="9">
-        <v>43466</v>
-      </c>
-      <c r="H6" s="8">
-        <v>50</v>
-      </c>
-      <c r="I6" s="8">
-        <v>15</v>
-      </c>
-      <c r="J6" s="8">
-        <v>25</v>
-      </c>
-      <c r="K6" s="8">
-        <v>19.34</v>
-      </c>
-      <c r="L6" s="8">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>22</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>43466</v>
       </c>
       <c r="D7">
         <f t="array" ref="D7">MEDIAN(IF($C$2:$C$251=C7,$B$2:$B$251))</f>
         <v>19.5</v>
       </c>
-      <c r="G7" s="9">
-        <v>43617</v>
-      </c>
-      <c r="H7" s="8">
-        <v>50</v>
-      </c>
-      <c r="I7" s="8">
-        <v>16</v>
-      </c>
-      <c r="J7" s="8">
-        <v>27</v>
-      </c>
-      <c r="K7" s="8">
-        <v>20.92</v>
-      </c>
-      <c r="L7" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>18</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>43466</v>
       </c>
       <c r="D8">
         <f t="array" ref="D8">MEDIAN(IF($C$2:$C$251=C8,$B$2:$B$251))</f>
         <v>19.5</v>
       </c>
-      <c r="G8" s="9">
-        <v>43831</v>
-      </c>
-      <c r="H8" s="8">
-        <v>50</v>
-      </c>
-      <c r="I8" s="8">
-        <v>17</v>
-      </c>
-      <c r="J8" s="8">
-        <v>28</v>
-      </c>
-      <c r="K8" s="8">
-        <v>22.48</v>
-      </c>
-      <c r="L8" s="8">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>20</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>43466</v>
       </c>
       <c r="D9">
         <f t="array" ref="D9">MEDIAN(IF($C$2:$C$251=C9,$B$2:$B$251))</f>
         <v>19.5</v>
       </c>
-      <c r="G9" s="9">
-        <v>43983</v>
-      </c>
-      <c r="H9" s="8">
-        <v>50</v>
-      </c>
-      <c r="I9" s="8">
-        <v>18</v>
-      </c>
-      <c r="J9" s="8">
-        <v>30</v>
-      </c>
-      <c r="K9" s="8">
-        <v>24.1</v>
-      </c>
-      <c r="L9" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>22</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>43466</v>
       </c>
       <c r="D10">
         <f t="array" ref="D10">MEDIAN(IF($C$2:$C$251=C10,$B$2:$B$251))</f>
         <v>19.5</v>
       </c>
-      <c r="G10" s="9">
-        <v>44197</v>
-      </c>
-      <c r="H10" s="8">
-        <v>50</v>
-      </c>
-      <c r="I10" s="8">
-        <v>19</v>
-      </c>
-      <c r="J10" s="8">
-        <v>32</v>
-      </c>
-      <c r="K10" s="8">
-        <v>25.5</v>
-      </c>
-      <c r="L10" s="8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>22</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>43466</v>
       </c>
       <c r="D11">
         <f t="array" ref="D11">MEDIAN(IF($C$2:$C$251=C11,$B$2:$B$251))</f>
         <v>19.5</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" s="8">
-        <v>250</v>
-      </c>
-      <c r="I11" s="8">
-        <v>15</v>
-      </c>
-      <c r="J11" s="8">
-        <v>32</v>
-      </c>
-      <c r="K11" s="8">
-        <v>22.468</v>
-      </c>
-      <c r="L11" s="8">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="5">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3">
         <v>43466</v>
       </c>
       <c r="D12">
@@ -3786,14 +3576,14 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="5">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3">
         <v>43466</v>
       </c>
       <c r="D13">
@@ -3801,14 +3591,14 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>15</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>43466</v>
       </c>
       <c r="D14">
@@ -3816,14 +3606,14 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>19</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>43466</v>
       </c>
       <c r="D15">
@@ -3831,14 +3621,14 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>22</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>43466</v>
       </c>
       <c r="D16">
@@ -3850,10 +3640,10 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>18</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>43466</v>
       </c>
       <c r="D17">
@@ -3865,10 +3655,10 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>19</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>43466</v>
       </c>
       <c r="D18">
@@ -3880,10 +3670,10 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>15</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>43466</v>
       </c>
       <c r="D19">
@@ -3895,10 +3685,10 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>15</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>43466</v>
       </c>
       <c r="D20">
@@ -3910,10 +3700,10 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>15</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>43466</v>
       </c>
       <c r="D21">
@@ -3925,10 +3715,10 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>16</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>43466</v>
       </c>
       <c r="D22">
@@ -3940,10 +3730,10 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="6">
-        <v>21</v>
-      </c>
-      <c r="C23" s="4">
+      <c r="B23" s="5">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3">
         <v>43466</v>
       </c>
       <c r="D23">
@@ -3955,10 +3745,10 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="6">
-        <v>21</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="B24" s="5">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3">
         <v>43466</v>
       </c>
       <c r="D24">
@@ -3970,10 +3760,10 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>15</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>43466</v>
       </c>
       <c r="D25">
@@ -3985,10 +3775,10 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>19</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>43466</v>
       </c>
       <c r="D26">
@@ -4000,10 +3790,10 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>16</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>43466</v>
       </c>
       <c r="D27">
@@ -4015,10 +3805,10 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>17</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>43466</v>
       </c>
       <c r="D28">
@@ -4030,10 +3820,10 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="6">
-        <v>25</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="B29" s="5">
+        <v>25</v>
+      </c>
+      <c r="C29" s="3">
         <v>43466</v>
       </c>
       <c r="D29">
@@ -4045,10 +3835,10 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="6">
-        <v>24</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="B30" s="5">
+        <v>24</v>
+      </c>
+      <c r="C30" s="3">
         <v>43466</v>
       </c>
       <c r="D30">
@@ -4060,10 +3850,10 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>19</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>43466</v>
       </c>
       <c r="D31">
@@ -4075,10 +3865,10 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="6">
-        <v>21</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="B32" s="5">
+        <v>21</v>
+      </c>
+      <c r="C32" s="3">
         <v>43466</v>
       </c>
       <c r="D32">
@@ -4090,10 +3880,10 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="6">
-        <v>21</v>
-      </c>
-      <c r="C33" s="4">
+      <c r="B33" s="5">
+        <v>21</v>
+      </c>
+      <c r="C33" s="3">
         <v>43466</v>
       </c>
       <c r="D33">
@@ -4105,10 +3895,10 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>16</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>43466</v>
       </c>
       <c r="D34">
@@ -4120,10 +3910,10 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>15</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>43466</v>
       </c>
       <c r="D35">
@@ -4135,10 +3925,10 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>22</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>43466</v>
       </c>
       <c r="D36">
@@ -4150,10 +3940,10 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>20</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>43466</v>
       </c>
       <c r="D37">
@@ -4165,10 +3955,10 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>17</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>43466</v>
       </c>
       <c r="D38">
@@ -4180,10 +3970,10 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="6">
-        <v>21</v>
-      </c>
-      <c r="C39" s="4">
+      <c r="B39" s="5">
+        <v>21</v>
+      </c>
+      <c r="C39" s="3">
         <v>43466</v>
       </c>
       <c r="D39">
@@ -4195,10 +3985,10 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>19</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>43466</v>
       </c>
       <c r="D40">
@@ -4210,10 +4000,10 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>16</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>43466</v>
       </c>
       <c r="D41">
@@ -4225,10 +4015,10 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>20</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>43466</v>
       </c>
       <c r="D42">
@@ -4240,10 +4030,10 @@
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>16</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>43466</v>
       </c>
       <c r="D43">
@@ -4255,10 +4045,10 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <v>17</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>43466</v>
       </c>
       <c r="D44">
@@ -4270,10 +4060,10 @@
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="6">
-        <v>24</v>
-      </c>
-      <c r="C45" s="4">
+      <c r="B45" s="5">
+        <v>24</v>
+      </c>
+      <c r="C45" s="3">
         <v>43466</v>
       </c>
       <c r="D45">
@@ -4285,10 +4075,10 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="5">
         <v>19</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>43466</v>
       </c>
       <c r="D46">
@@ -4300,10 +4090,10 @@
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="6">
-        <v>21</v>
-      </c>
-      <c r="C47" s="4">
+      <c r="B47" s="5">
+        <v>21</v>
+      </c>
+      <c r="C47" s="3">
         <v>43466</v>
       </c>
       <c r="D47">
@@ -4315,10 +4105,10 @@
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="6">
-        <v>21</v>
-      </c>
-      <c r="C48" s="4">
+      <c r="B48" s="5">
+        <v>21</v>
+      </c>
+      <c r="C48" s="3">
         <v>43466</v>
       </c>
       <c r="D48">
@@ -4330,10 +4120,10 @@
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="5">
         <v>16</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>43466</v>
       </c>
       <c r="D49">
@@ -4345,10 +4135,10 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="6">
-        <v>24</v>
-      </c>
-      <c r="C50" s="4">
+      <c r="B50" s="5">
+        <v>24</v>
+      </c>
+      <c r="C50" s="3">
         <v>43466</v>
       </c>
       <c r="D50">
@@ -4360,10 +4150,10 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="6">
-        <v>24</v>
-      </c>
-      <c r="C51" s="4">
+      <c r="B51" s="5">
+        <v>24</v>
+      </c>
+      <c r="C51" s="3">
         <v>43466</v>
       </c>
       <c r="D51">
@@ -4375,26 +4165,26 @@
       <c r="A52" s="1">
         <v>1</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <v>17</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>43617</v>
       </c>
       <c r="D52">
         <f t="array" ref="D52">MEDIAN(IF($C$2:$C$251=C52,$B$2:$B$251))</f>
         <v>21</v>
       </c>
-      <c r="E52" s="8"/>
+      <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2</v>
       </c>
-      <c r="B53" s="6">
-        <v>21</v>
-      </c>
-      <c r="C53" s="4">
+      <c r="B53" s="5">
+        <v>21</v>
+      </c>
+      <c r="C53" s="3">
         <v>43617</v>
       </c>
       <c r="D53">
@@ -4406,10 +4196,10 @@
       <c r="A54" s="1">
         <v>3</v>
       </c>
-      <c r="B54" s="6">
-        <v>23</v>
-      </c>
-      <c r="C54" s="4">
+      <c r="B54" s="5">
+        <v>23</v>
+      </c>
+      <c r="C54" s="3">
         <v>43617</v>
       </c>
       <c r="D54">
@@ -4421,10 +4211,10 @@
       <c r="A55" s="1">
         <v>4</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="5">
         <v>20</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>43617</v>
       </c>
       <c r="D55">
@@ -4436,10 +4226,10 @@
       <c r="A56" s="1">
         <v>5</v>
       </c>
-      <c r="B56" s="6">
-        <v>24</v>
-      </c>
-      <c r="C56" s="4">
+      <c r="B56" s="5">
+        <v>24</v>
+      </c>
+      <c r="C56" s="3">
         <v>43617</v>
       </c>
       <c r="D56">
@@ -4451,10 +4241,10 @@
       <c r="A57" s="1">
         <v>6</v>
       </c>
-      <c r="B57" s="6">
-        <v>24</v>
-      </c>
-      <c r="C57" s="4">
+      <c r="B57" s="5">
+        <v>24</v>
+      </c>
+      <c r="C57" s="3">
         <v>43617</v>
       </c>
       <c r="D57">
@@ -4466,10 +4256,10 @@
       <c r="A58" s="1">
         <v>7</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="5">
         <v>19</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>43617</v>
       </c>
       <c r="D58">
@@ -4481,10 +4271,10 @@
       <c r="A59" s="1">
         <v>8</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="5">
         <v>22</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>43617</v>
       </c>
       <c r="D59">
@@ -4496,10 +4286,10 @@
       <c r="A60" s="1">
         <v>9</v>
       </c>
-      <c r="B60" s="6">
-        <v>24</v>
-      </c>
-      <c r="C60" s="4">
+      <c r="B60" s="5">
+        <v>24</v>
+      </c>
+      <c r="C60" s="3">
         <v>43617</v>
       </c>
       <c r="D60">
@@ -4511,10 +4301,10 @@
       <c r="A61" s="1">
         <v>10</v>
       </c>
-      <c r="B61" s="6">
-        <v>23</v>
-      </c>
-      <c r="C61" s="4">
+      <c r="B61" s="5">
+        <v>23</v>
+      </c>
+      <c r="C61" s="3">
         <v>43617</v>
       </c>
       <c r="D61">
@@ -4526,10 +4316,10 @@
       <c r="A62" s="1">
         <v>11</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="5">
         <v>22</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>43617</v>
       </c>
       <c r="D62">
@@ -4541,10 +4331,10 @@
       <c r="A63" s="1">
         <v>12</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="5">
         <v>27</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>43617</v>
       </c>
       <c r="D63">
@@ -4556,10 +4346,10 @@
       <c r="A64" s="1">
         <v>13</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="5">
         <v>17</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>43617</v>
       </c>
       <c r="D64">
@@ -4571,10 +4361,10 @@
       <c r="A65" s="1">
         <v>14</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="5">
         <v>20</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>43617</v>
       </c>
       <c r="D65">
@@ -4586,10 +4376,10 @@
       <c r="A66" s="1">
         <v>15</v>
       </c>
-      <c r="B66" s="6">
-        <v>24</v>
-      </c>
-      <c r="C66" s="4">
+      <c r="B66" s="5">
+        <v>24</v>
+      </c>
+      <c r="C66" s="3">
         <v>43617</v>
       </c>
       <c r="D66">
@@ -4601,10 +4391,10 @@
       <c r="A67" s="1">
         <v>16</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="5">
         <v>20</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <v>43617</v>
       </c>
       <c r="D67">
@@ -4616,10 +4406,10 @@
       <c r="A68" s="1">
         <v>17</v>
       </c>
-      <c r="B68" s="6">
-        <v>21</v>
-      </c>
-      <c r="C68" s="4">
+      <c r="B68" s="5">
+        <v>21</v>
+      </c>
+      <c r="C68" s="3">
         <v>43617</v>
       </c>
       <c r="D68">
@@ -4631,10 +4421,10 @@
       <c r="A69" s="1">
         <v>18</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="5">
         <v>17</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>43617</v>
       </c>
       <c r="D69">
@@ -4646,10 +4436,10 @@
       <c r="A70" s="1">
         <v>19</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="5">
         <v>16</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <v>43617</v>
       </c>
       <c r="D70">
@@ -4661,10 +4451,10 @@
       <c r="A71" s="1">
         <v>20</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="5">
         <v>16</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <v>43617</v>
       </c>
       <c r="D71">
@@ -4676,10 +4466,10 @@
       <c r="A72" s="1">
         <v>21</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="5">
         <v>17</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="3">
         <v>43617</v>
       </c>
       <c r="D72">
@@ -4691,10 +4481,10 @@
       <c r="A73" s="1">
         <v>22</v>
       </c>
-      <c r="B73" s="6">
-        <v>23</v>
-      </c>
-      <c r="C73" s="4">
+      <c r="B73" s="5">
+        <v>23</v>
+      </c>
+      <c r="C73" s="3">
         <v>43617</v>
       </c>
       <c r="D73">
@@ -4706,10 +4496,10 @@
       <c r="A74" s="1">
         <v>23</v>
       </c>
-      <c r="B74" s="6">
-        <v>23</v>
-      </c>
-      <c r="C74" s="4">
+      <c r="B74" s="5">
+        <v>23</v>
+      </c>
+      <c r="C74" s="3">
         <v>43617</v>
       </c>
       <c r="D74">
@@ -4721,10 +4511,10 @@
       <c r="A75" s="1">
         <v>24</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="5">
         <v>16</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="3">
         <v>43617</v>
       </c>
       <c r="D75">
@@ -4736,10 +4526,10 @@
       <c r="A76" s="1">
         <v>25</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="5">
         <v>20</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="3">
         <v>43617</v>
       </c>
       <c r="D76">
@@ -4751,10 +4541,10 @@
       <c r="A77" s="1">
         <v>26</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="5">
         <v>18</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <v>43617</v>
       </c>
       <c r="D77">
@@ -4766,10 +4556,10 @@
       <c r="A78" s="1">
         <v>27</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="5">
         <v>19</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="3">
         <v>43617</v>
       </c>
       <c r="D78">
@@ -4781,10 +4571,10 @@
       <c r="A79" s="1">
         <v>28</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="5">
         <v>26</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="3">
         <v>43617</v>
       </c>
       <c r="D79">
@@ -4796,10 +4586,10 @@
       <c r="A80" s="1">
         <v>29</v>
       </c>
-      <c r="B80" s="6">
-        <v>25</v>
-      </c>
-      <c r="C80" s="4">
+      <c r="B80" s="5">
+        <v>25</v>
+      </c>
+      <c r="C80" s="3">
         <v>43617</v>
       </c>
       <c r="D80">
@@ -4811,10 +4601,10 @@
       <c r="A81" s="1">
         <v>30</v>
       </c>
-      <c r="B81" s="6">
-        <v>21</v>
-      </c>
-      <c r="C81" s="4">
+      <c r="B81" s="5">
+        <v>21</v>
+      </c>
+      <c r="C81" s="3">
         <v>43617</v>
       </c>
       <c r="D81">
@@ -4826,10 +4616,10 @@
       <c r="A82" s="1">
         <v>31</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="5">
         <v>22</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="3">
         <v>43617</v>
       </c>
       <c r="D82">
@@ -4841,10 +4631,10 @@
       <c r="A83" s="1">
         <v>32</v>
       </c>
-      <c r="B83" s="6">
-        <v>23</v>
-      </c>
-      <c r="C83" s="4">
+      <c r="B83" s="5">
+        <v>23</v>
+      </c>
+      <c r="C83" s="3">
         <v>43617</v>
       </c>
       <c r="D83">
@@ -4856,10 +4646,10 @@
       <c r="A84" s="1">
         <v>33</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84" s="5">
         <v>18</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="3">
         <v>43617</v>
       </c>
       <c r="D84">
@@ -4871,10 +4661,10 @@
       <c r="A85" s="1">
         <v>34</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="5">
         <v>17</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="3">
         <v>43617</v>
       </c>
       <c r="D85">
@@ -4886,10 +4676,10 @@
       <c r="A86" s="1">
         <v>35</v>
       </c>
-      <c r="B86" s="6">
-        <v>24</v>
-      </c>
-      <c r="C86" s="4">
+      <c r="B86" s="5">
+        <v>24</v>
+      </c>
+      <c r="C86" s="3">
         <v>43617</v>
       </c>
       <c r="D86">
@@ -4901,10 +4691,10 @@
       <c r="A87" s="1">
         <v>36</v>
       </c>
-      <c r="B87" s="6">
-        <v>21</v>
-      </c>
-      <c r="C87" s="4">
+      <c r="B87" s="5">
+        <v>21</v>
+      </c>
+      <c r="C87" s="3">
         <v>43617</v>
       </c>
       <c r="D87">
@@ -4916,10 +4706,10 @@
       <c r="A88" s="1">
         <v>37</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="5">
         <v>19</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="3">
         <v>43617</v>
       </c>
       <c r="D88">
@@ -4931,10 +4721,10 @@
       <c r="A89" s="1">
         <v>38</v>
       </c>
-      <c r="B89" s="6">
-        <v>23</v>
-      </c>
-      <c r="C89" s="4">
+      <c r="B89" s="5">
+        <v>23</v>
+      </c>
+      <c r="C89" s="3">
         <v>43617</v>
       </c>
       <c r="D89">
@@ -4946,10 +4736,10 @@
       <c r="A90" s="1">
         <v>39</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90" s="5">
         <v>20</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="3">
         <v>43617</v>
       </c>
       <c r="D90">
@@ -4961,10 +4751,10 @@
       <c r="A91" s="1">
         <v>40</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91" s="5">
         <v>17</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="3">
         <v>43617</v>
       </c>
       <c r="D91">
@@ -4976,10 +4766,10 @@
       <c r="A92" s="1">
         <v>41</v>
       </c>
-      <c r="B92" s="6">
-        <v>21</v>
-      </c>
-      <c r="C92" s="4">
+      <c r="B92" s="5">
+        <v>21</v>
+      </c>
+      <c r="C92" s="3">
         <v>43617</v>
       </c>
       <c r="D92">
@@ -4991,10 +4781,10 @@
       <c r="A93" s="1">
         <v>42</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="5">
         <v>17</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="3">
         <v>43617</v>
       </c>
       <c r="D93">
@@ -5006,10 +4796,10 @@
       <c r="A94" s="1">
         <v>43</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94" s="5">
         <v>19</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="3">
         <v>43617</v>
       </c>
       <c r="D94">
@@ -5021,10 +4811,10 @@
       <c r="A95" s="1">
         <v>44</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="5">
         <v>26</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="3">
         <v>43617</v>
       </c>
       <c r="D95">
@@ -5036,10 +4826,10 @@
       <c r="A96" s="1">
         <v>45</v>
       </c>
-      <c r="B96" s="6">
-        <v>21</v>
-      </c>
-      <c r="C96" s="4">
+      <c r="B96" s="5">
+        <v>21</v>
+      </c>
+      <c r="C96" s="3">
         <v>43617</v>
       </c>
       <c r="D96">
@@ -5051,10 +4841,10 @@
       <c r="A97" s="1">
         <v>46</v>
       </c>
-      <c r="B97" s="6">
-        <v>23</v>
-      </c>
-      <c r="C97" s="4">
+      <c r="B97" s="5">
+        <v>23</v>
+      </c>
+      <c r="C97" s="3">
         <v>43617</v>
       </c>
       <c r="D97">
@@ -5066,10 +4856,10 @@
       <c r="A98" s="1">
         <v>47</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B98" s="5">
         <v>22</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="3">
         <v>43617</v>
       </c>
       <c r="D98">
@@ -5081,10 +4871,10 @@
       <c r="A99" s="1">
         <v>48</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99" s="5">
         <v>17</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="3">
         <v>43617</v>
       </c>
       <c r="D99">
@@ -5096,10 +4886,10 @@
       <c r="A100" s="1">
         <v>49</v>
       </c>
-      <c r="B100" s="6">
-        <v>25</v>
-      </c>
-      <c r="C100" s="4">
+      <c r="B100" s="5">
+        <v>25</v>
+      </c>
+      <c r="C100" s="3">
         <v>43617</v>
       </c>
       <c r="D100">
@@ -5111,10 +4901,10 @@
       <c r="A101" s="1">
         <v>50</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101" s="5">
         <v>26</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="3">
         <v>43617</v>
       </c>
       <c r="D101">
@@ -5126,26 +4916,26 @@
       <c r="A102" s="1">
         <v>1</v>
       </c>
-      <c r="B102" s="6">
+      <c r="B102" s="5">
         <v>18</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="3">
         <v>43831</v>
       </c>
       <c r="D102">
         <f t="array" ref="D102">MEDIAN(IF($C$2:$C$251=C102,$B$2:$B$251))</f>
         <v>23</v>
       </c>
-      <c r="E102" s="8"/>
+      <c r="E102" s="7"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2</v>
       </c>
-      <c r="B103" s="6">
-        <v>23</v>
-      </c>
-      <c r="C103" s="4">
+      <c r="B103" s="5">
+        <v>23</v>
+      </c>
+      <c r="C103" s="3">
         <v>43831</v>
       </c>
       <c r="D103">
@@ -5157,10 +4947,10 @@
       <c r="A104" s="1">
         <v>3</v>
       </c>
-      <c r="B104" s="6">
-        <v>24</v>
-      </c>
-      <c r="C104" s="4">
+      <c r="B104" s="5">
+        <v>24</v>
+      </c>
+      <c r="C104" s="3">
         <v>43831</v>
       </c>
       <c r="D104">
@@ -5172,10 +4962,10 @@
       <c r="A105" s="1">
         <v>4</v>
       </c>
-      <c r="B105" s="6">
+      <c r="B105" s="5">
         <v>22</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="3">
         <v>43831</v>
       </c>
       <c r="D105">
@@ -5187,10 +4977,10 @@
       <c r="A106" s="1">
         <v>5</v>
       </c>
-      <c r="B106" s="6">
+      <c r="B106" s="5">
         <v>26</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="3">
         <v>43831</v>
       </c>
       <c r="D106">
@@ -5202,10 +4992,10 @@
       <c r="A107" s="1">
         <v>6</v>
       </c>
-      <c r="B107" s="6">
-        <v>25</v>
-      </c>
-      <c r="C107" s="4">
+      <c r="B107" s="5">
+        <v>25</v>
+      </c>
+      <c r="C107" s="3">
         <v>43831</v>
       </c>
       <c r="D107">
@@ -5217,10 +5007,10 @@
       <c r="A108" s="1">
         <v>7</v>
       </c>
-      <c r="B108" s="6">
-        <v>21</v>
-      </c>
-      <c r="C108" s="4">
+      <c r="B108" s="5">
+        <v>21</v>
+      </c>
+      <c r="C108" s="3">
         <v>43831</v>
       </c>
       <c r="D108">
@@ -5232,10 +5022,10 @@
       <c r="A109" s="1">
         <v>8</v>
       </c>
-      <c r="B109" s="6">
-        <v>24</v>
-      </c>
-      <c r="C109" s="4">
+      <c r="B109" s="5">
+        <v>24</v>
+      </c>
+      <c r="C109" s="3">
         <v>43831</v>
       </c>
       <c r="D109">
@@ -5247,10 +5037,10 @@
       <c r="A110" s="1">
         <v>9</v>
       </c>
-      <c r="B110" s="6">
-        <v>25</v>
-      </c>
-      <c r="C110" s="4">
+      <c r="B110" s="5">
+        <v>25</v>
+      </c>
+      <c r="C110" s="3">
         <v>43831</v>
       </c>
       <c r="D110">
@@ -5262,10 +5052,10 @@
       <c r="A111" s="1">
         <v>10</v>
       </c>
-      <c r="B111" s="6">
-        <v>25</v>
-      </c>
-      <c r="C111" s="4">
+      <c r="B111" s="5">
+        <v>25</v>
+      </c>
+      <c r="C111" s="3">
         <v>43831</v>
       </c>
       <c r="D111">
@@ -5277,10 +5067,10 @@
       <c r="A112" s="1">
         <v>11</v>
       </c>
-      <c r="B112" s="6">
-        <v>23</v>
-      </c>
-      <c r="C112" s="4">
+      <c r="B112" s="5">
+        <v>23</v>
+      </c>
+      <c r="C112" s="3">
         <v>43831</v>
       </c>
       <c r="D112">
@@ -5292,10 +5082,10 @@
       <c r="A113" s="1">
         <v>12</v>
       </c>
-      <c r="B113" s="6">
+      <c r="B113" s="5">
         <v>28</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="3">
         <v>43831</v>
       </c>
       <c r="D113">
@@ -5307,10 +5097,10 @@
       <c r="A114" s="1">
         <v>13</v>
       </c>
-      <c r="B114" s="6">
+      <c r="B114" s="5">
         <v>19</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="3">
         <v>43831</v>
       </c>
       <c r="D114">
@@ -5322,10 +5112,10 @@
       <c r="A115" s="1">
         <v>14</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B115" s="5">
         <v>22</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="3">
         <v>43831</v>
       </c>
       <c r="D115">
@@ -5337,10 +5127,10 @@
       <c r="A116" s="1">
         <v>15</v>
       </c>
-      <c r="B116" s="6">
+      <c r="B116" s="5">
         <v>26</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="3">
         <v>43831</v>
       </c>
       <c r="D116">
@@ -5352,10 +5142,10 @@
       <c r="A117" s="1">
         <v>16</v>
       </c>
-      <c r="B117" s="6">
+      <c r="B117" s="5">
         <v>22</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="3">
         <v>43831</v>
       </c>
       <c r="D117">
@@ -5367,10 +5157,10 @@
       <c r="A118" s="1">
         <v>17</v>
       </c>
-      <c r="B118" s="6">
-        <v>23</v>
-      </c>
-      <c r="C118" s="4">
+      <c r="B118" s="5">
+        <v>23</v>
+      </c>
+      <c r="C118" s="3">
         <v>43831</v>
       </c>
       <c r="D118">
@@ -5382,10 +5172,10 @@
       <c r="A119" s="1">
         <v>18</v>
       </c>
-      <c r="B119" s="6">
+      <c r="B119" s="5">
         <v>18</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="3">
         <v>43831</v>
       </c>
       <c r="D119">
@@ -5397,10 +5187,10 @@
       <c r="A120" s="1">
         <v>19</v>
       </c>
-      <c r="B120" s="6">
+      <c r="B120" s="5">
         <v>17</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="3">
         <v>43831</v>
       </c>
       <c r="D120">
@@ -5412,10 +5202,10 @@
       <c r="A121" s="1">
         <v>20</v>
       </c>
-      <c r="B121" s="6">
+      <c r="B121" s="5">
         <v>17</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="3">
         <v>43831</v>
       </c>
       <c r="D121">
@@ -5427,10 +5217,10 @@
       <c r="A122" s="1">
         <v>21</v>
       </c>
-      <c r="B122" s="6">
+      <c r="B122" s="5">
         <v>19</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="3">
         <v>43831</v>
       </c>
       <c r="D122">
@@ -5442,10 +5232,10 @@
       <c r="A123" s="1">
         <v>22</v>
       </c>
-      <c r="B123" s="6">
-        <v>25</v>
-      </c>
-      <c r="C123" s="4">
+      <c r="B123" s="5">
+        <v>25</v>
+      </c>
+      <c r="C123" s="3">
         <v>43831</v>
       </c>
       <c r="D123">
@@ -5457,10 +5247,10 @@
       <c r="A124" s="1">
         <v>23</v>
       </c>
-      <c r="B124" s="6">
-        <v>24</v>
-      </c>
-      <c r="C124" s="4">
+      <c r="B124" s="5">
+        <v>24</v>
+      </c>
+      <c r="C124" s="3">
         <v>43831</v>
       </c>
       <c r="D124">
@@ -5472,10 +5262,10 @@
       <c r="A125" s="1">
         <v>24</v>
       </c>
-      <c r="B125" s="6">
+      <c r="B125" s="5">
         <v>18</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125" s="3">
         <v>43831</v>
       </c>
       <c r="D125">
@@ -5487,10 +5277,10 @@
       <c r="A126" s="1">
         <v>25</v>
       </c>
-      <c r="B126" s="6">
+      <c r="B126" s="5">
         <v>22</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C126" s="3">
         <v>43831</v>
       </c>
       <c r="D126">
@@ -5502,10 +5292,10 @@
       <c r="A127" s="1">
         <v>26</v>
       </c>
-      <c r="B127" s="6">
+      <c r="B127" s="5">
         <v>20</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C127" s="3">
         <v>43831</v>
       </c>
       <c r="D127">
@@ -5517,10 +5307,10 @@
       <c r="A128" s="1">
         <v>27</v>
       </c>
-      <c r="B128" s="6">
+      <c r="B128" s="5">
         <v>20</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128" s="3">
         <v>43831</v>
       </c>
       <c r="D128">
@@ -5532,10 +5322,10 @@
       <c r="A129" s="1">
         <v>28</v>
       </c>
-      <c r="B129" s="6">
+      <c r="B129" s="5">
         <v>28</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129" s="3">
         <v>43831</v>
       </c>
       <c r="D129">
@@ -5547,10 +5337,10 @@
       <c r="A130" s="1">
         <v>29</v>
       </c>
-      <c r="B130" s="6">
+      <c r="B130" s="5">
         <v>26</v>
       </c>
-      <c r="C130" s="4">
+      <c r="C130" s="3">
         <v>43831</v>
       </c>
       <c r="D130">
@@ -5562,10 +5352,10 @@
       <c r="A131" s="1">
         <v>30</v>
       </c>
-      <c r="B131" s="6">
+      <c r="B131" s="5">
         <v>22</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131" s="3">
         <v>43831</v>
       </c>
       <c r="D131">
@@ -5577,10 +5367,10 @@
       <c r="A132" s="1">
         <v>31</v>
       </c>
-      <c r="B132" s="6">
-        <v>24</v>
-      </c>
-      <c r="C132" s="4">
+      <c r="B132" s="5">
+        <v>24</v>
+      </c>
+      <c r="C132" s="3">
         <v>43831</v>
       </c>
       <c r="D132">
@@ -5592,10 +5382,10 @@
       <c r="A133" s="1">
         <v>32</v>
       </c>
-      <c r="B133" s="6">
-        <v>24</v>
-      </c>
-      <c r="C133" s="4">
+      <c r="B133" s="5">
+        <v>24</v>
+      </c>
+      <c r="C133" s="3">
         <v>43831</v>
       </c>
       <c r="D133">
@@ -5607,10 +5397,10 @@
       <c r="A134" s="1">
         <v>33</v>
       </c>
-      <c r="B134" s="6">
+      <c r="B134" s="5">
         <v>20</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="3">
         <v>43831</v>
       </c>
       <c r="D134">
@@ -5622,10 +5412,10 @@
       <c r="A135" s="1">
         <v>34</v>
       </c>
-      <c r="B135" s="6">
+      <c r="B135" s="5">
         <v>18</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135" s="3">
         <v>43831</v>
       </c>
       <c r="D135">
@@ -5637,10 +5427,10 @@
       <c r="A136" s="1">
         <v>35</v>
       </c>
-      <c r="B136" s="6">
-        <v>25</v>
-      </c>
-      <c r="C136" s="4">
+      <c r="B136" s="5">
+        <v>25</v>
+      </c>
+      <c r="C136" s="3">
         <v>43831</v>
       </c>
       <c r="D136">
@@ -5652,10 +5442,10 @@
       <c r="A137" s="1">
         <v>36</v>
       </c>
-      <c r="B137" s="6">
-        <v>23</v>
-      </c>
-      <c r="C137" s="4">
+      <c r="B137" s="5">
+        <v>23</v>
+      </c>
+      <c r="C137" s="3">
         <v>43831</v>
       </c>
       <c r="D137">
@@ -5667,10 +5457,10 @@
       <c r="A138" s="1">
         <v>37</v>
       </c>
-      <c r="B138" s="6">
+      <c r="B138" s="5">
         <v>20</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="3">
         <v>43831</v>
       </c>
       <c r="D138">
@@ -5682,10 +5472,10 @@
       <c r="A139" s="1">
         <v>38</v>
       </c>
-      <c r="B139" s="6">
-        <v>25</v>
-      </c>
-      <c r="C139" s="4">
+      <c r="B139" s="5">
+        <v>25</v>
+      </c>
+      <c r="C139" s="3">
         <v>43831</v>
       </c>
       <c r="D139">
@@ -5697,10 +5487,10 @@
       <c r="A140" s="1">
         <v>39</v>
       </c>
-      <c r="B140" s="6">
-        <v>21</v>
-      </c>
-      <c r="C140" s="4">
+      <c r="B140" s="5">
+        <v>21</v>
+      </c>
+      <c r="C140" s="3">
         <v>43831</v>
       </c>
       <c r="D140">
@@ -5712,10 +5502,10 @@
       <c r="A141" s="1">
         <v>40</v>
       </c>
-      <c r="B141" s="6">
+      <c r="B141" s="5">
         <v>19</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="3">
         <v>43831</v>
       </c>
       <c r="D141">
@@ -5727,10 +5517,10 @@
       <c r="A142" s="1">
         <v>41</v>
       </c>
-      <c r="B142" s="6">
+      <c r="B142" s="5">
         <v>22</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="3">
         <v>43831</v>
       </c>
       <c r="D142">
@@ -5742,10 +5532,10 @@
       <c r="A143" s="1">
         <v>42</v>
       </c>
-      <c r="B143" s="6">
+      <c r="B143" s="5">
         <v>19</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="3">
         <v>43831</v>
       </c>
       <c r="D143">
@@ -5757,10 +5547,10 @@
       <c r="A144" s="1">
         <v>43</v>
       </c>
-      <c r="B144" s="6">
-        <v>21</v>
-      </c>
-      <c r="C144" s="4">
+      <c r="B144" s="5">
+        <v>21</v>
+      </c>
+      <c r="C144" s="3">
         <v>43831</v>
       </c>
       <c r="D144">
@@ -5772,10 +5562,10 @@
       <c r="A145" s="1">
         <v>44</v>
       </c>
-      <c r="B145" s="6">
+      <c r="B145" s="5">
         <v>28</v>
       </c>
-      <c r="C145" s="4">
+      <c r="C145" s="3">
         <v>43831</v>
       </c>
       <c r="D145">
@@ -5787,10 +5577,10 @@
       <c r="A146" s="1">
         <v>45</v>
       </c>
-      <c r="B146" s="6">
-        <v>23</v>
-      </c>
-      <c r="C146" s="4">
+      <c r="B146" s="5">
+        <v>23</v>
+      </c>
+      <c r="C146" s="3">
         <v>43831</v>
       </c>
       <c r="D146">
@@ -5802,10 +5592,10 @@
       <c r="A147" s="1">
         <v>46</v>
       </c>
-      <c r="B147" s="6">
-        <v>24</v>
-      </c>
-      <c r="C147" s="4">
+      <c r="B147" s="5">
+        <v>24</v>
+      </c>
+      <c r="C147" s="3">
         <v>43831</v>
       </c>
       <c r="D147">
@@ -5817,10 +5607,10 @@
       <c r="A148" s="1">
         <v>47</v>
       </c>
-      <c r="B148" s="6">
-        <v>24</v>
-      </c>
-      <c r="C148" s="4">
+      <c r="B148" s="5">
+        <v>24</v>
+      </c>
+      <c r="C148" s="3">
         <v>43831</v>
       </c>
       <c r="D148">
@@ -5832,10 +5622,10 @@
       <c r="A149" s="1">
         <v>48</v>
       </c>
-      <c r="B149" s="6">
+      <c r="B149" s="5">
         <v>19</v>
       </c>
-      <c r="C149" s="4">
+      <c r="C149" s="3">
         <v>43831</v>
       </c>
       <c r="D149">
@@ -5847,10 +5637,10 @@
       <c r="A150" s="1">
         <v>49</v>
       </c>
-      <c r="B150" s="6">
+      <c r="B150" s="5">
         <v>26</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150" s="3">
         <v>43831</v>
       </c>
       <c r="D150">
@@ -5862,10 +5652,10 @@
       <c r="A151" s="1">
         <v>50</v>
       </c>
-      <c r="B151" s="6">
+      <c r="B151" s="5">
         <v>27</v>
       </c>
-      <c r="C151" s="4">
+      <c r="C151" s="3">
         <v>43831</v>
       </c>
       <c r="D151">
@@ -5877,26 +5667,26 @@
       <c r="A152" s="1">
         <v>1</v>
       </c>
-      <c r="B152" s="6">
+      <c r="B152" s="5">
         <v>19</v>
       </c>
-      <c r="C152" s="4">
+      <c r="C152" s="3">
         <v>43983</v>
       </c>
       <c r="D152">
         <f t="array" ref="D152">MEDIAN(IF($C$2:$C$251=C152,$B$2:$B$251))</f>
         <v>24</v>
       </c>
-      <c r="E152" s="5"/>
+      <c r="E152" s="4"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>2</v>
       </c>
-      <c r="B153" s="6">
-        <v>25</v>
-      </c>
-      <c r="C153" s="4">
+      <c r="B153" s="5">
+        <v>25</v>
+      </c>
+      <c r="C153" s="3">
         <v>43983</v>
       </c>
       <c r="D153">
@@ -5908,10 +5698,10 @@
       <c r="A154" s="1">
         <v>3</v>
       </c>
-      <c r="B154" s="6">
+      <c r="B154" s="5">
         <v>26</v>
       </c>
-      <c r="C154" s="4">
+      <c r="C154" s="3">
         <v>43983</v>
       </c>
       <c r="D154">
@@ -5923,10 +5713,10 @@
       <c r="A155" s="1">
         <v>4</v>
       </c>
-      <c r="B155" s="6">
-        <v>24</v>
-      </c>
-      <c r="C155" s="4">
+      <c r="B155" s="5">
+        <v>24</v>
+      </c>
+      <c r="C155" s="3">
         <v>43983</v>
       </c>
       <c r="D155">
@@ -5938,10 +5728,10 @@
       <c r="A156" s="1">
         <v>5</v>
       </c>
-      <c r="B156" s="6">
+      <c r="B156" s="5">
         <v>28</v>
       </c>
-      <c r="C156" s="4">
+      <c r="C156" s="3">
         <v>43983</v>
       </c>
       <c r="D156">
@@ -5953,10 +5743,10 @@
       <c r="A157" s="1">
         <v>6</v>
       </c>
-      <c r="B157" s="6">
+      <c r="B157" s="5">
         <v>27</v>
       </c>
-      <c r="C157" s="4">
+      <c r="C157" s="3">
         <v>43983</v>
       </c>
       <c r="D157">
@@ -5968,10 +5758,10 @@
       <c r="A158" s="1">
         <v>7</v>
       </c>
-      <c r="B158" s="6">
+      <c r="B158" s="5">
         <v>22</v>
       </c>
-      <c r="C158" s="4">
+      <c r="C158" s="3">
         <v>43983</v>
       </c>
       <c r="D158">
@@ -5983,10 +5773,10 @@
       <c r="A159" s="1">
         <v>8</v>
       </c>
-      <c r="B159" s="6">
-        <v>25</v>
-      </c>
-      <c r="C159" s="4">
+      <c r="B159" s="5">
+        <v>25</v>
+      </c>
+      <c r="C159" s="3">
         <v>43983</v>
       </c>
       <c r="D159">
@@ -5998,10 +5788,10 @@
       <c r="A160" s="1">
         <v>9</v>
       </c>
-      <c r="B160" s="6">
+      <c r="B160" s="5">
         <v>26</v>
       </c>
-      <c r="C160" s="4">
+      <c r="C160" s="3">
         <v>43983</v>
       </c>
       <c r="D160">
@@ -6013,10 +5803,10 @@
       <c r="A161" s="1">
         <v>10</v>
       </c>
-      <c r="B161" s="6">
+      <c r="B161" s="5">
         <v>27</v>
       </c>
-      <c r="C161" s="4">
+      <c r="C161" s="3">
         <v>43983</v>
       </c>
       <c r="D161">
@@ -6028,10 +5818,10 @@
       <c r="A162" s="1">
         <v>11</v>
       </c>
-      <c r="B162" s="6">
-        <v>25</v>
-      </c>
-      <c r="C162" s="4">
+      <c r="B162" s="5">
+        <v>25</v>
+      </c>
+      <c r="C162" s="3">
         <v>43983</v>
       </c>
       <c r="D162">
@@ -6043,10 +5833,10 @@
       <c r="A163" s="1">
         <v>12</v>
       </c>
-      <c r="B163" s="6">
+      <c r="B163" s="5">
         <v>30</v>
       </c>
-      <c r="C163" s="4">
+      <c r="C163" s="3">
         <v>43983</v>
       </c>
       <c r="D163">
@@ -6058,10 +5848,10 @@
       <c r="A164" s="1">
         <v>13</v>
       </c>
-      <c r="B164" s="6">
+      <c r="B164" s="5">
         <v>20</v>
       </c>
-      <c r="C164" s="4">
+      <c r="C164" s="3">
         <v>43983</v>
       </c>
       <c r="D164">
@@ -6073,10 +5863,10 @@
       <c r="A165" s="1">
         <v>14</v>
       </c>
-      <c r="B165" s="6">
-        <v>23</v>
-      </c>
-      <c r="C165" s="4">
+      <c r="B165" s="5">
+        <v>23</v>
+      </c>
+      <c r="C165" s="3">
         <v>43983</v>
       </c>
       <c r="D165">
@@ -6088,10 +5878,10 @@
       <c r="A166" s="1">
         <v>15</v>
       </c>
-      <c r="B166" s="6">
+      <c r="B166" s="5">
         <v>27</v>
       </c>
-      <c r="C166" s="4">
+      <c r="C166" s="3">
         <v>43983</v>
       </c>
       <c r="D166">
@@ -6103,10 +5893,10 @@
       <c r="A167" s="1">
         <v>16</v>
       </c>
-      <c r="B167" s="6">
-        <v>23</v>
-      </c>
-      <c r="C167" s="4">
+      <c r="B167" s="5">
+        <v>23</v>
+      </c>
+      <c r="C167" s="3">
         <v>43983</v>
       </c>
       <c r="D167">
@@ -6118,10 +5908,10 @@
       <c r="A168" s="1">
         <v>17</v>
       </c>
-      <c r="B168" s="6">
-        <v>24</v>
-      </c>
-      <c r="C168" s="4">
+      <c r="B168" s="5">
+        <v>24</v>
+      </c>
+      <c r="C168" s="3">
         <v>43983</v>
       </c>
       <c r="D168">
@@ -6133,10 +5923,10 @@
       <c r="A169" s="1">
         <v>18</v>
       </c>
-      <c r="B169" s="6">
+      <c r="B169" s="5">
         <v>20</v>
       </c>
-      <c r="C169" s="4">
+      <c r="C169" s="3">
         <v>43983</v>
       </c>
       <c r="D169">
@@ -6148,10 +5938,10 @@
       <c r="A170" s="1">
         <v>19</v>
       </c>
-      <c r="B170" s="6">
+      <c r="B170" s="5">
         <v>19</v>
       </c>
-      <c r="C170" s="4">
+      <c r="C170" s="3">
         <v>43983</v>
       </c>
       <c r="D170">
@@ -6163,10 +5953,10 @@
       <c r="A171" s="1">
         <v>20</v>
       </c>
-      <c r="B171" s="6">
+      <c r="B171" s="5">
         <v>18</v>
       </c>
-      <c r="C171" s="4">
+      <c r="C171" s="3">
         <v>43983</v>
       </c>
       <c r="D171">
@@ -6178,10 +5968,10 @@
       <c r="A172" s="1">
         <v>21</v>
       </c>
-      <c r="B172" s="6">
-        <v>21</v>
-      </c>
-      <c r="C172" s="4">
+      <c r="B172" s="5">
+        <v>21</v>
+      </c>
+      <c r="C172" s="3">
         <v>43983</v>
       </c>
       <c r="D172">
@@ -6193,10 +5983,10 @@
       <c r="A173" s="1">
         <v>22</v>
       </c>
-      <c r="B173" s="6">
+      <c r="B173" s="5">
         <v>27</v>
       </c>
-      <c r="C173" s="4">
+      <c r="C173" s="3">
         <v>43983</v>
       </c>
       <c r="D173">
@@ -6208,10 +5998,10 @@
       <c r="A174" s="1">
         <v>23</v>
       </c>
-      <c r="B174" s="6">
+      <c r="B174" s="5">
         <v>26</v>
       </c>
-      <c r="C174" s="4">
+      <c r="C174" s="3">
         <v>43983</v>
       </c>
       <c r="D174">
@@ -6223,10 +6013,10 @@
       <c r="A175" s="1">
         <v>24</v>
       </c>
-      <c r="B175" s="6">
+      <c r="B175" s="5">
         <v>19</v>
       </c>
-      <c r="C175" s="4">
+      <c r="C175" s="3">
         <v>43983</v>
       </c>
       <c r="D175">
@@ -6238,10 +6028,10 @@
       <c r="A176" s="1">
         <v>25</v>
       </c>
-      <c r="B176" s="6">
-        <v>23</v>
-      </c>
-      <c r="C176" s="4">
+      <c r="B176" s="5">
+        <v>23</v>
+      </c>
+      <c r="C176" s="3">
         <v>43983</v>
       </c>
       <c r="D176">
@@ -6253,10 +6043,10 @@
       <c r="A177" s="1">
         <v>26</v>
       </c>
-      <c r="B177" s="6">
-        <v>21</v>
-      </c>
-      <c r="C177" s="4">
+      <c r="B177" s="5">
+        <v>21</v>
+      </c>
+      <c r="C177" s="3">
         <v>43983</v>
       </c>
       <c r="D177">
@@ -6268,10 +6058,10 @@
       <c r="A178" s="1">
         <v>27</v>
       </c>
-      <c r="B178" s="6">
+      <c r="B178" s="5">
         <v>22</v>
       </c>
-      <c r="C178" s="4">
+      <c r="C178" s="3">
         <v>43983</v>
       </c>
       <c r="D178">
@@ -6283,10 +6073,10 @@
       <c r="A179" s="1">
         <v>28</v>
       </c>
-      <c r="B179" s="6">
+      <c r="B179" s="5">
         <v>30</v>
       </c>
-      <c r="C179" s="4">
+      <c r="C179" s="3">
         <v>43983</v>
       </c>
       <c r="D179">
@@ -6298,10 +6088,10 @@
       <c r="A180" s="1">
         <v>29</v>
       </c>
-      <c r="B180" s="6">
+      <c r="B180" s="5">
         <v>28</v>
       </c>
-      <c r="C180" s="4">
+      <c r="C180" s="3">
         <v>43983</v>
       </c>
       <c r="D180">
@@ -6313,10 +6103,10 @@
       <c r="A181" s="1">
         <v>30</v>
       </c>
-      <c r="B181" s="6">
-        <v>24</v>
-      </c>
-      <c r="C181" s="4">
+      <c r="B181" s="5">
+        <v>24</v>
+      </c>
+      <c r="C181" s="3">
         <v>43983</v>
       </c>
       <c r="D181">
@@ -6328,10 +6118,10 @@
       <c r="A182" s="1">
         <v>31</v>
       </c>
-      <c r="B182" s="6">
-        <v>25</v>
-      </c>
-      <c r="C182" s="4">
+      <c r="B182" s="5">
+        <v>25</v>
+      </c>
+      <c r="C182" s="3">
         <v>43983</v>
       </c>
       <c r="D182">
@@ -6343,10 +6133,10 @@
       <c r="A183" s="1">
         <v>32</v>
       </c>
-      <c r="B183" s="6">
+      <c r="B183" s="5">
         <v>26</v>
       </c>
-      <c r="C183" s="4">
+      <c r="C183" s="3">
         <v>43983</v>
       </c>
       <c r="D183">
@@ -6358,10 +6148,10 @@
       <c r="A184" s="1">
         <v>33</v>
       </c>
-      <c r="B184" s="6">
+      <c r="B184" s="5">
         <v>22</v>
       </c>
-      <c r="C184" s="4">
+      <c r="C184" s="3">
         <v>43983</v>
       </c>
       <c r="D184">
@@ -6373,10 +6163,10 @@
       <c r="A185" s="1">
         <v>34</v>
       </c>
-      <c r="B185" s="6">
+      <c r="B185" s="5">
         <v>20</v>
       </c>
-      <c r="C185" s="4">
+      <c r="C185" s="3">
         <v>43983</v>
       </c>
       <c r="D185">
@@ -6388,10 +6178,10 @@
       <c r="A186" s="1">
         <v>35</v>
       </c>
-      <c r="B186" s="6">
+      <c r="B186" s="5">
         <v>27</v>
       </c>
-      <c r="C186" s="4">
+      <c r="C186" s="3">
         <v>43983</v>
       </c>
       <c r="D186">
@@ -6403,10 +6193,10 @@
       <c r="A187" s="1">
         <v>36</v>
       </c>
-      <c r="B187" s="6">
-        <v>25</v>
-      </c>
-      <c r="C187" s="4">
+      <c r="B187" s="5">
+        <v>25</v>
+      </c>
+      <c r="C187" s="3">
         <v>43983</v>
       </c>
       <c r="D187">
@@ -6418,10 +6208,10 @@
       <c r="A188" s="1">
         <v>37</v>
       </c>
-      <c r="B188" s="6">
+      <c r="B188" s="5">
         <v>22</v>
       </c>
-      <c r="C188" s="4">
+      <c r="C188" s="3">
         <v>43983</v>
       </c>
       <c r="D188">
@@ -6433,10 +6223,10 @@
       <c r="A189" s="1">
         <v>38</v>
       </c>
-      <c r="B189" s="6">
+      <c r="B189" s="5">
         <v>27</v>
       </c>
-      <c r="C189" s="4">
+      <c r="C189" s="3">
         <v>43983</v>
       </c>
       <c r="D189">
@@ -6448,10 +6238,10 @@
       <c r="A190" s="1">
         <v>39</v>
       </c>
-      <c r="B190" s="6">
+      <c r="B190" s="5">
         <v>22</v>
       </c>
-      <c r="C190" s="4">
+      <c r="C190" s="3">
         <v>43983</v>
       </c>
       <c r="D190">
@@ -6463,10 +6253,10 @@
       <c r="A191" s="1">
         <v>40</v>
       </c>
-      <c r="B191" s="6">
-        <v>21</v>
-      </c>
-      <c r="C191" s="4">
+      <c r="B191" s="5">
+        <v>21</v>
+      </c>
+      <c r="C191" s="3">
         <v>43983</v>
       </c>
       <c r="D191">
@@ -6478,10 +6268,10 @@
       <c r="A192" s="1">
         <v>41</v>
       </c>
-      <c r="B192" s="6">
-        <v>24</v>
-      </c>
-      <c r="C192" s="4">
+      <c r="B192" s="5">
+        <v>24</v>
+      </c>
+      <c r="C192" s="3">
         <v>43983</v>
       </c>
       <c r="D192">
@@ -6493,10 +6283,10 @@
       <c r="A193" s="1">
         <v>42</v>
       </c>
-      <c r="B193" s="6">
-        <v>21</v>
-      </c>
-      <c r="C193" s="4">
+      <c r="B193" s="5">
+        <v>21</v>
+      </c>
+      <c r="C193" s="3">
         <v>43983</v>
       </c>
       <c r="D193">
@@ -6508,10 +6298,10 @@
       <c r="A194" s="1">
         <v>43</v>
       </c>
-      <c r="B194" s="6">
+      <c r="B194" s="5">
         <v>22</v>
       </c>
-      <c r="C194" s="4">
+      <c r="C194" s="3">
         <v>43983</v>
       </c>
       <c r="D194">
@@ -6523,10 +6313,10 @@
       <c r="A195" s="1">
         <v>44</v>
       </c>
-      <c r="B195" s="6">
+      <c r="B195" s="5">
         <v>30</v>
       </c>
-      <c r="C195" s="4">
+      <c r="C195" s="3">
         <v>43983</v>
       </c>
       <c r="D195">
@@ -6538,10 +6328,10 @@
       <c r="A196" s="1">
         <v>45</v>
       </c>
-      <c r="B196" s="6">
-        <v>24</v>
-      </c>
-      <c r="C196" s="4">
+      <c r="B196" s="5">
+        <v>24</v>
+      </c>
+      <c r="C196" s="3">
         <v>43983</v>
       </c>
       <c r="D196">
@@ -6553,10 +6343,10 @@
       <c r="A197" s="1">
         <v>46</v>
       </c>
-      <c r="B197" s="6">
+      <c r="B197" s="5">
         <v>26</v>
       </c>
-      <c r="C197" s="4">
+      <c r="C197" s="3">
         <v>43983</v>
       </c>
       <c r="D197">
@@ -6568,10 +6358,10 @@
       <c r="A198" s="1">
         <v>47</v>
       </c>
-      <c r="B198" s="6">
-        <v>25</v>
-      </c>
-      <c r="C198" s="4">
+      <c r="B198" s="5">
+        <v>25</v>
+      </c>
+      <c r="C198" s="3">
         <v>43983</v>
       </c>
       <c r="D198">
@@ -6583,10 +6373,10 @@
       <c r="A199" s="1">
         <v>48</v>
       </c>
-      <c r="B199" s="6">
-        <v>21</v>
-      </c>
-      <c r="C199" s="4">
+      <c r="B199" s="5">
+        <v>21</v>
+      </c>
+      <c r="C199" s="3">
         <v>43983</v>
       </c>
       <c r="D199">
@@ -6598,10 +6388,10 @@
       <c r="A200" s="1">
         <v>49</v>
       </c>
-      <c r="B200" s="6">
+      <c r="B200" s="5">
         <v>27</v>
       </c>
-      <c r="C200" s="4">
+      <c r="C200" s="3">
         <v>43983</v>
       </c>
       <c r="D200">
@@ -6613,10 +6403,10 @@
       <c r="A201" s="1">
         <v>50</v>
       </c>
-      <c r="B201" s="6">
+      <c r="B201" s="5">
         <v>29</v>
       </c>
-      <c r="C201" s="4">
+      <c r="C201" s="3">
         <v>43983</v>
       </c>
       <c r="D201">
@@ -6628,26 +6418,26 @@
       <c r="A202" s="1">
         <v>1</v>
       </c>
-      <c r="B202" s="6">
+      <c r="B202" s="5">
         <v>20</v>
       </c>
-      <c r="C202" s="4">
+      <c r="C202" s="3">
         <v>44197</v>
       </c>
       <c r="D202">
         <f t="array" ref="D202">MEDIAN(IF($C$2:$C$251=C202,$B$2:$B$251))</f>
         <v>25</v>
       </c>
-      <c r="E202" s="5"/>
+      <c r="E202" s="4"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>2</v>
       </c>
-      <c r="B203" s="6">
+      <c r="B203" s="5">
         <v>26</v>
       </c>
-      <c r="C203" s="4">
+      <c r="C203" s="3">
         <v>44197</v>
       </c>
       <c r="D203">
@@ -6659,10 +6449,10 @@
       <c r="A204" s="1">
         <v>3</v>
       </c>
-      <c r="B204" s="6">
+      <c r="B204" s="5">
         <v>27</v>
       </c>
-      <c r="C204" s="4">
+      <c r="C204" s="3">
         <v>44197</v>
       </c>
       <c r="D204">
@@ -6674,10 +6464,10 @@
       <c r="A205" s="1">
         <v>4</v>
       </c>
-      <c r="B205" s="6">
-        <v>25</v>
-      </c>
-      <c r="C205" s="4">
+      <c r="B205" s="5">
+        <v>25</v>
+      </c>
+      <c r="C205" s="3">
         <v>44197</v>
       </c>
       <c r="D205">
@@ -6689,10 +6479,10 @@
       <c r="A206" s="1">
         <v>5</v>
       </c>
-      <c r="B206" s="6">
+      <c r="B206" s="5">
         <v>29</v>
       </c>
-      <c r="C206" s="4">
+      <c r="C206" s="3">
         <v>44197</v>
       </c>
       <c r="D206">
@@ -6704,10 +6494,10 @@
       <c r="A207" s="1">
         <v>6</v>
       </c>
-      <c r="B207" s="6">
+      <c r="B207" s="5">
         <v>28</v>
       </c>
-      <c r="C207" s="4">
+      <c r="C207" s="3">
         <v>44197</v>
       </c>
       <c r="D207">
@@ -6719,10 +6509,10 @@
       <c r="A208" s="1">
         <v>7</v>
       </c>
-      <c r="B208" s="6">
-        <v>24</v>
-      </c>
-      <c r="C208" s="4">
+      <c r="B208" s="5">
+        <v>24</v>
+      </c>
+      <c r="C208" s="3">
         <v>44197</v>
       </c>
       <c r="D208">
@@ -6734,10 +6524,10 @@
       <c r="A209" s="1">
         <v>8</v>
       </c>
-      <c r="B209" s="6">
+      <c r="B209" s="5">
         <v>27</v>
       </c>
-      <c r="C209" s="4">
+      <c r="C209" s="3">
         <v>44197</v>
       </c>
       <c r="D209">
@@ -6749,10 +6539,10 @@
       <c r="A210" s="1">
         <v>9</v>
       </c>
-      <c r="B210" s="6">
+      <c r="B210" s="5">
         <v>28</v>
       </c>
-      <c r="C210" s="4">
+      <c r="C210" s="3">
         <v>44197</v>
       </c>
       <c r="D210">
@@ -6764,10 +6554,10 @@
       <c r="A211" s="1">
         <v>10</v>
       </c>
-      <c r="B211" s="6">
+      <c r="B211" s="5">
         <v>28</v>
       </c>
-      <c r="C211" s="4">
+      <c r="C211" s="3">
         <v>44197</v>
       </c>
       <c r="D211">
@@ -6779,10 +6569,10 @@
       <c r="A212" s="1">
         <v>11</v>
       </c>
-      <c r="B212" s="6">
+      <c r="B212" s="5">
         <v>27</v>
       </c>
-      <c r="C212" s="4">
+      <c r="C212" s="3">
         <v>44197</v>
       </c>
       <c r="D212">
@@ -6794,10 +6584,10 @@
       <c r="A213" s="1">
         <v>12</v>
       </c>
-      <c r="B213" s="6">
+      <c r="B213" s="5">
         <v>31</v>
       </c>
-      <c r="C213" s="4">
+      <c r="C213" s="3">
         <v>44197</v>
       </c>
       <c r="D213">
@@ -6809,10 +6599,10 @@
       <c r="A214" s="1">
         <v>13</v>
       </c>
-      <c r="B214" s="6">
+      <c r="B214" s="5">
         <v>22</v>
       </c>
-      <c r="C214" s="4">
+      <c r="C214" s="3">
         <v>44197</v>
       </c>
       <c r="D214">
@@ -6824,10 +6614,10 @@
       <c r="A215" s="1">
         <v>14</v>
       </c>
-      <c r="B215" s="6">
-        <v>24</v>
-      </c>
-      <c r="C215" s="4">
+      <c r="B215" s="5">
+        <v>24</v>
+      </c>
+      <c r="C215" s="3">
         <v>44197</v>
       </c>
       <c r="D215">
@@ -6839,10 +6629,10 @@
       <c r="A216" s="1">
         <v>15</v>
       </c>
-      <c r="B216" s="6">
+      <c r="B216" s="5">
         <v>28</v>
       </c>
-      <c r="C216" s="4">
+      <c r="C216" s="3">
         <v>44197</v>
       </c>
       <c r="D216">
@@ -6854,10 +6644,10 @@
       <c r="A217" s="1">
         <v>16</v>
       </c>
-      <c r="B217" s="6">
-        <v>25</v>
-      </c>
-      <c r="C217" s="4">
+      <c r="B217" s="5">
+        <v>25</v>
+      </c>
+      <c r="C217" s="3">
         <v>44197</v>
       </c>
       <c r="D217">
@@ -6869,10 +6659,10 @@
       <c r="A218" s="1">
         <v>17</v>
       </c>
-      <c r="B218" s="6">
-        <v>25</v>
-      </c>
-      <c r="C218" s="4">
+      <c r="B218" s="5">
+        <v>25</v>
+      </c>
+      <c r="C218" s="3">
         <v>44197</v>
       </c>
       <c r="D218">
@@ -6884,10 +6674,10 @@
       <c r="A219" s="1">
         <v>18</v>
       </c>
-      <c r="B219" s="6">
+      <c r="B219" s="5">
         <v>22</v>
       </c>
-      <c r="C219" s="4">
+      <c r="C219" s="3">
         <v>44197</v>
       </c>
       <c r="D219">
@@ -6899,10 +6689,10 @@
       <c r="A220" s="1">
         <v>19</v>
       </c>
-      <c r="B220" s="6">
+      <c r="B220" s="5">
         <v>20</v>
       </c>
-      <c r="C220" s="4">
+      <c r="C220" s="3">
         <v>44197</v>
       </c>
       <c r="D220">
@@ -6914,10 +6704,10 @@
       <c r="A221" s="1">
         <v>20</v>
       </c>
-      <c r="B221" s="6">
+      <c r="B221" s="5">
         <v>19</v>
       </c>
-      <c r="C221" s="4">
+      <c r="C221" s="3">
         <v>44197</v>
       </c>
       <c r="D221">
@@ -6929,10 +6719,10 @@
       <c r="A222" s="1">
         <v>21</v>
       </c>
-      <c r="B222" s="6">
+      <c r="B222" s="5">
         <v>22</v>
       </c>
-      <c r="C222" s="4">
+      <c r="C222" s="3">
         <v>44197</v>
       </c>
       <c r="D222">
@@ -6944,10 +6734,10 @@
       <c r="A223" s="1">
         <v>22</v>
       </c>
-      <c r="B223" s="6">
+      <c r="B223" s="5">
         <v>29</v>
       </c>
-      <c r="C223" s="4">
+      <c r="C223" s="3">
         <v>44197</v>
       </c>
       <c r="D223">
@@ -6959,10 +6749,10 @@
       <c r="A224" s="1">
         <v>23</v>
       </c>
-      <c r="B224" s="6">
+      <c r="B224" s="5">
         <v>27</v>
       </c>
-      <c r="C224" s="4">
+      <c r="C224" s="3">
         <v>44197</v>
       </c>
       <c r="D224">
@@ -6974,10 +6764,10 @@
       <c r="A225" s="1">
         <v>24</v>
       </c>
-      <c r="B225" s="6">
+      <c r="B225" s="5">
         <v>20</v>
       </c>
-      <c r="C225" s="4">
+      <c r="C225" s="3">
         <v>44197</v>
       </c>
       <c r="D225">
@@ -6989,10 +6779,10 @@
       <c r="A226" s="1">
         <v>25</v>
       </c>
-      <c r="B226" s="6">
-        <v>25</v>
-      </c>
-      <c r="C226" s="4">
+      <c r="B226" s="5">
+        <v>25</v>
+      </c>
+      <c r="C226" s="3">
         <v>44197</v>
       </c>
       <c r="D226">
@@ -7004,10 +6794,10 @@
       <c r="A227" s="1">
         <v>26</v>
       </c>
-      <c r="B227" s="6">
+      <c r="B227" s="5">
         <v>22</v>
       </c>
-      <c r="C227" s="4">
+      <c r="C227" s="3">
         <v>44197</v>
       </c>
       <c r="D227">
@@ -7019,10 +6809,10 @@
       <c r="A228" s="1">
         <v>27</v>
       </c>
-      <c r="B228" s="6">
-        <v>23</v>
-      </c>
-      <c r="C228" s="4">
+      <c r="B228" s="5">
+        <v>23</v>
+      </c>
+      <c r="C228" s="3">
         <v>44197</v>
       </c>
       <c r="D228">
@@ -7034,10 +6824,10 @@
       <c r="A229" s="1">
         <v>28</v>
       </c>
-      <c r="B229" s="6">
+      <c r="B229" s="5">
         <v>32</v>
       </c>
-      <c r="C229" s="4">
+      <c r="C229" s="3">
         <v>44197</v>
       </c>
       <c r="D229">
@@ -7049,10 +6839,10 @@
       <c r="A230" s="1">
         <v>29</v>
       </c>
-      <c r="B230" s="6">
+      <c r="B230" s="5">
         <v>29</v>
       </c>
-      <c r="C230" s="4">
+      <c r="C230" s="3">
         <v>44197</v>
       </c>
       <c r="D230">
@@ -7064,10 +6854,10 @@
       <c r="A231" s="1">
         <v>30</v>
       </c>
-      <c r="B231" s="6">
-        <v>25</v>
-      </c>
-      <c r="C231" s="4">
+      <c r="B231" s="5">
+        <v>25</v>
+      </c>
+      <c r="C231" s="3">
         <v>44197</v>
       </c>
       <c r="D231">
@@ -7079,10 +6869,10 @@
       <c r="A232" s="1">
         <v>31</v>
       </c>
-      <c r="B232" s="6">
+      <c r="B232" s="5">
         <v>27</v>
       </c>
-      <c r="C232" s="4">
+      <c r="C232" s="3">
         <v>44197</v>
       </c>
       <c r="D232">
@@ -7094,10 +6884,10 @@
       <c r="A233" s="1">
         <v>32</v>
       </c>
-      <c r="B233" s="6">
+      <c r="B233" s="5">
         <v>27</v>
       </c>
-      <c r="C233" s="4">
+      <c r="C233" s="3">
         <v>44197</v>
       </c>
       <c r="D233">
@@ -7109,10 +6899,10 @@
       <c r="A234" s="1">
         <v>33</v>
       </c>
-      <c r="B234" s="6">
-        <v>24</v>
-      </c>
-      <c r="C234" s="4">
+      <c r="B234" s="5">
+        <v>24</v>
+      </c>
+      <c r="C234" s="3">
         <v>44197</v>
       </c>
       <c r="D234">
@@ -7124,10 +6914,10 @@
       <c r="A235" s="1">
         <v>34</v>
       </c>
-      <c r="B235" s="6">
-        <v>21</v>
-      </c>
-      <c r="C235" s="4">
+      <c r="B235" s="5">
+        <v>21</v>
+      </c>
+      <c r="C235" s="3">
         <v>44197</v>
       </c>
       <c r="D235">
@@ -7139,10 +6929,10 @@
       <c r="A236" s="1">
         <v>35</v>
       </c>
-      <c r="B236" s="6">
+      <c r="B236" s="5">
         <v>29</v>
       </c>
-      <c r="C236" s="4">
+      <c r="C236" s="3">
         <v>44197</v>
       </c>
       <c r="D236">
@@ -7154,10 +6944,10 @@
       <c r="A237" s="1">
         <v>36</v>
       </c>
-      <c r="B237" s="6">
+      <c r="B237" s="5">
         <v>26</v>
       </c>
-      <c r="C237" s="4">
+      <c r="C237" s="3">
         <v>44197</v>
       </c>
       <c r="D237">
@@ -7169,10 +6959,10 @@
       <c r="A238" s="1">
         <v>37</v>
       </c>
-      <c r="B238" s="6">
-        <v>23</v>
-      </c>
-      <c r="C238" s="4">
+      <c r="B238" s="5">
+        <v>23</v>
+      </c>
+      <c r="C238" s="3">
         <v>44197</v>
       </c>
       <c r="D238">
@@ -7184,10 +6974,10 @@
       <c r="A239" s="1">
         <v>38</v>
       </c>
-      <c r="B239" s="6">
+      <c r="B239" s="5">
         <v>29</v>
       </c>
-      <c r="C239" s="4">
+      <c r="C239" s="3">
         <v>44197</v>
       </c>
       <c r="D239">
@@ -7199,10 +6989,10 @@
       <c r="A240" s="1">
         <v>39</v>
       </c>
-      <c r="B240" s="6">
-        <v>23</v>
-      </c>
-      <c r="C240" s="4">
+      <c r="B240" s="5">
+        <v>23</v>
+      </c>
+      <c r="C240" s="3">
         <v>44197</v>
       </c>
       <c r="D240">
@@ -7214,10 +7004,10 @@
       <c r="A241" s="1">
         <v>40</v>
       </c>
-      <c r="B241" s="6">
+      <c r="B241" s="5">
         <v>22</v>
       </c>
-      <c r="C241" s="4">
+      <c r="C241" s="3">
         <v>44197</v>
       </c>
       <c r="D241">
@@ -7229,10 +7019,10 @@
       <c r="A242" s="1">
         <v>41</v>
       </c>
-      <c r="B242" s="6">
-        <v>25</v>
-      </c>
-      <c r="C242" s="4">
+      <c r="B242" s="5">
+        <v>25</v>
+      </c>
+      <c r="C242" s="3">
         <v>44197</v>
       </c>
       <c r="D242">
@@ -7244,10 +7034,10 @@
       <c r="A243" s="1">
         <v>42</v>
       </c>
-      <c r="B243" s="6">
-        <v>23</v>
-      </c>
-      <c r="C243" s="4">
+      <c r="B243" s="5">
+        <v>23</v>
+      </c>
+      <c r="C243" s="3">
         <v>44197</v>
       </c>
       <c r="D243">
@@ -7259,10 +7049,10 @@
       <c r="A244" s="1">
         <v>43</v>
       </c>
-      <c r="B244" s="6">
-        <v>24</v>
-      </c>
-      <c r="C244" s="4">
+      <c r="B244" s="5">
+        <v>24</v>
+      </c>
+      <c r="C244" s="3">
         <v>44197</v>
       </c>
       <c r="D244">
@@ -7274,10 +7064,10 @@
       <c r="A245" s="1">
         <v>44</v>
       </c>
-      <c r="B245" s="6">
+      <c r="B245" s="5">
         <v>32</v>
       </c>
-      <c r="C245" s="4">
+      <c r="C245" s="3">
         <v>44197</v>
       </c>
       <c r="D245">
@@ -7289,10 +7079,10 @@
       <c r="A246" s="1">
         <v>45</v>
       </c>
-      <c r="B246" s="6">
-        <v>25</v>
-      </c>
-      <c r="C246" s="4">
+      <c r="B246" s="5">
+        <v>25</v>
+      </c>
+      <c r="C246" s="3">
         <v>44197</v>
       </c>
       <c r="D246">
@@ -7304,10 +7094,10 @@
       <c r="A247" s="1">
         <v>46</v>
       </c>
-      <c r="B247" s="6">
+      <c r="B247" s="5">
         <v>27</v>
       </c>
-      <c r="C247" s="4">
+      <c r="C247" s="3">
         <v>44197</v>
       </c>
       <c r="D247">
@@ -7319,10 +7109,10 @@
       <c r="A248" s="1">
         <v>47</v>
       </c>
-      <c r="B248" s="6">
+      <c r="B248" s="5">
         <v>27</v>
       </c>
-      <c r="C248" s="4">
+      <c r="C248" s="3">
         <v>44197</v>
       </c>
       <c r="D248">
@@ -7334,10 +7124,10 @@
       <c r="A249" s="1">
         <v>48</v>
       </c>
-      <c r="B249" s="6">
+      <c r="B249" s="5">
         <v>22</v>
       </c>
-      <c r="C249" s="4">
+      <c r="C249" s="3">
         <v>44197</v>
       </c>
       <c r="D249">
@@ -7349,10 +7139,10 @@
       <c r="A250" s="1">
         <v>49</v>
       </c>
-      <c r="B250" s="6">
+      <c r="B250" s="5">
         <v>29</v>
       </c>
-      <c r="C250" s="4">
+      <c r="C250" s="3">
         <v>44197</v>
       </c>
       <c r="D250">
@@ -7364,10 +7154,10 @@
       <c r="A251" s="1">
         <v>50</v>
       </c>
-      <c r="B251" s="6">
+      <c r="B251" s="5">
         <v>31</v>
       </c>
-      <c r="C251" s="4">
+      <c r="C251" s="3">
         <v>44197</v>
       </c>
       <c r="D251">
@@ -7377,908 +7167,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>43631</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2">
-        <v>25007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43301</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2">
-        <v>16043</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>42508</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
-        <v>36879</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43110</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
-        <v>22771</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>42246</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2">
-        <v>30463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>42663</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2">
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>42160</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2">
-        <v>30768</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>42641</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2">
-        <v>17259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>43055</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2">
-        <v>44028</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>42384</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="2">
-        <v>30088</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>43118</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2">
-        <v>41441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>42136</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="2">
-        <v>26350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>43185</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="2">
-        <v>41377</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>42499</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="2">
-        <v>18802</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>42386</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="2">
-        <v>29994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>44228</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="2">
-        <v>41791</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>43309</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="2">
-        <v>39674</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>42190</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="2">
-        <v>43909</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>42447</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="2">
-        <v>20751</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>43158</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="2">
-        <v>41578</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>43193</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="2">
-        <v>38673</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2">
-        <v>43599</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="2">
-        <v>30686</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
-        <v>42238</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="2">
-        <v>35033</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2">
-        <v>43192</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="2">
-        <v>37383</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2">
-        <v>43485</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="2">
-        <v>19807</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2">
-        <v>43546</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="2">
-        <v>43944</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2">
-        <v>42820</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="2">
-        <v>20286</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2">
-        <v>42989</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="2">
-        <v>25195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2">
-        <v>43096</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="2">
-        <v>26370</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2">
-        <v>42017</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="2">
-        <v>38645</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2">
-        <v>43271</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="2">
-        <v>41115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2">
-        <v>43737</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="2">
-        <v>31471</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2">
-        <v>43389</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="2">
-        <v>26777</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2">
-        <v>44075</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="2">
-        <v>23974</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2">
-        <v>42359</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="2">
-        <v>22327</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2">
-        <v>42569</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="2">
-        <v>34673</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2">
-        <v>42347</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="2">
-        <v>41453</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2">
-        <v>42498</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="2">
-        <v>15330</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2">
-        <v>44164</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="2">
-        <v>44096</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2">
-        <v>43645</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="2">
-        <v>31328</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2">
-        <v>42077</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="2">
-        <v>30365</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2">
-        <v>42407</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="2">
-        <v>19637</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2">
-        <v>42886</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="2">
-        <v>44048</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2">
-        <v>44001</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" s="2">
-        <v>25714</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2">
-        <v>43427</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" s="2">
-        <v>40448</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2">
-        <v>42440</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" s="2">
-        <v>19845</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2">
-        <v>43921</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E48" s="2">
-        <v>32326</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2">
-        <v>43085</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" s="2">
-        <v>14722</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2">
-        <v>42981</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E50" s="2">
-        <v>35299</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2">
-        <v>43324</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" s="2">
-        <v>40552</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>